--- a/biology/Zoologie/Atractus_hoogmoedi/Atractus_hoogmoedi.xlsx
+++ b/biology/Zoologie/Atractus_hoogmoedi/Atractus_hoogmoedi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atractus hoogmoedi  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atractus hoogmoedi  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Pará au Brésil[1]. Elle se rencontre à 48 m d'altitude à Capitão Poço.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Pará au Brésil. Elle se rencontre à 48 m d'altitude à Capitão Poço.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 187 mm dont 27 mm pour la queue, le mâle le plus grand 194 mm dont 29 mm pour la queue et la femelle la plus grande 248 mm dont 24 mm pour la queue[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 187 mm dont 27 mm pour la queue, le mâle le plus grand 194 mm dont 29 mm pour la queue et la femelle la plus grande 248 mm dont 24 mm pour la queue
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Marinus Steven Hoogmoed[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Marinus Steven Hoogmoed.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Prudente &amp; Passos, 2010 : New Cryptic Species of Atractus (Serpentes: Dipsadidae) from Brazilian Amazonia. Copeia, vol. 2010, no 3, p. 397-404 (texte intégral).</t>
         </is>
